--- a/data/trans_orig/IFINALC_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IFINALC_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E508682D-62E2-4F3A-A889-D690014A4F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD24C69B-B136-4723-9116-3E3FC8897E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1EE0A8E-C726-4D74-936D-F97A0410FDF7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5F866A2-ECD7-46B0-9F5F-AA99F4B53DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
   <si>
     <t>Adulto entrevistado según su comprensión general del cuestionario en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -104,73 +104,73 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,07%</t>
+    <t>4,76%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -179,220 +179,217 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>11,1%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -807,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C1E0E7-4392-41FE-A361-EB1DD9EC3E7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EFD339-8B5D-439D-A271-879810E9BF97}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,7 +1777,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>100</v>
@@ -1801,10 +1798,10 @@
         <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -1813,13 +1810,13 @@
         <v>93245</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>292</v>
@@ -1828,13 +1825,13 @@
         <v>198214</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1846,13 @@
         <v>618087</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>790</v>
@@ -1864,13 +1861,13 @@
         <v>555224</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>1618</v>
@@ -1879,13 +1876,13 @@
         <v>1173312</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1938,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IFINALC_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IFINALC_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD24C69B-B136-4723-9116-3E3FC8897E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86BFAEE-8870-4151-ADF4-F158B06282E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5F866A2-ECD7-46B0-9F5F-AA99F4B53DAB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B41D331F-7EC4-4200-95F9-B1B569FDE08D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
   <si>
     <t>Adulto entrevistado según su comprensión general del cuestionario en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,331 +65,322 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Regular</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -804,8 +795,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EFD339-8B5D-439D-A271-879810E9BF97}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183C9DED-B341-418E-9946-27A6D3B39283}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -922,145 +913,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>164</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8486</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9775</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>18261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46028</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>51664</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>97692</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1069,202 +1066,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>534</v>
+        <v>3068</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>159</v>
+        <v>2313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>693</v>
+        <v>5381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7">
-        <v>8882</v>
+        <v>59261</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>7526</v>
+        <v>70162</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="N9" s="7">
-        <v>16408</v>
+        <v>129423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>543</v>
       </c>
       <c r="D10" s="7">
-        <v>49341</v>
+        <v>396175</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="I10" s="7">
-        <v>43517</v>
+        <v>444144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>129</v>
+        <v>1104</v>
       </c>
       <c r="N10" s="7">
-        <v>92858</v>
+        <v>840319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1273,204 +1272,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>458504</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1297</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>975123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2113</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3056</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>5169</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>67012</v>
+        <v>24575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>60073</v>
+        <v>31192</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="N13" s="7">
-        <v>127086</v>
+        <v>55767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>561</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>423238</v>
+        <v>124976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>543</v>
+        <v>197</v>
       </c>
       <c r="I14" s="7">
-        <v>384812</v>
+        <v>152157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>1104</v>
+        <v>384</v>
       </c>
       <c r="N14" s="7">
-        <v>808051</v>
+        <v>277133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,204 +1478,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>447941</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>940306</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2878</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D17" s="7">
-        <v>29075</v>
+        <v>92322</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="I17" s="7">
-        <v>25645</v>
+        <v>111130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="N17" s="7">
-        <v>54720</v>
+        <v>203452</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>197</v>
+        <v>789</v>
       </c>
       <c r="D18" s="7">
-        <v>145508</v>
+        <v>567179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
-        <v>187</v>
+        <v>828</v>
       </c>
       <c r="I18" s="7">
-        <v>125725</v>
+        <v>647965</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
-        <v>384</v>
+        <v>1617</v>
       </c>
       <c r="N18" s="7">
-        <v>271232</v>
+        <v>1215144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,267 +1684,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>662733</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1917</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1424705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2647</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3215</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5862</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>146</v>
-      </c>
-      <c r="D21" s="7">
-        <v>104970</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="7">
-        <v>146</v>
-      </c>
-      <c r="I21" s="7">
-        <v>93245</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M21" s="7">
-        <v>292</v>
-      </c>
-      <c r="N21" s="7">
-        <v>198214</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>828</v>
-      </c>
-      <c r="D22" s="7">
-        <v>618087</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="7">
-        <v>790</v>
-      </c>
-      <c r="I22" s="7">
-        <v>555224</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1618</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1173312</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="A20" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>977</v>
-      </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
-      <c r="I23" s="7">
-        <v>651684</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1377388</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
